--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_41.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_41.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_7</t>
+          <t>model_1_41_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999723398330146</v>
+        <v>0.9505578528958191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8244542474539338</v>
+        <v>0.7480819167602499</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8131633667541163</v>
+        <v>0.7665280836252844</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995187947269264</v>
+        <v>0.8240613235310505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001151361835155607</v>
+        <v>0.1733199698638788</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173875255589411</v>
+        <v>1.684577382600321</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6683038037100817</v>
+        <v>0.8351155073928314</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003048207217527357</v>
+        <v>0.2409095524827964</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1075505408317001</v>
+        <v>1.286800058304912</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0339317231386148</v>
+        <v>0.4163171505761909</v>
       </c>
       <c r="L2" t="n">
-        <v>1.017702506870656</v>
+        <v>0.9326745230921791</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03446611385876897</v>
+        <v>0.4228737295332956</v>
       </c>
       <c r="N2" t="n">
-        <v>143.5336196654818</v>
+        <v>37.50523171197212</v>
       </c>
       <c r="O2" t="n">
-        <v>284.8687922086982</v>
+        <v>74.46981530019794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_8</t>
+          <t>model_1_41_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997392434763636</v>
+        <v>0.9493412349118848</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8244203882587906</v>
+        <v>0.7475435767086553</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8132054790321304</v>
+        <v>0.7748801819288396</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995345497952136</v>
+        <v>0.7925263108657943</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001085405991009833</v>
+        <v>0.1775848370806488</v>
       </c>
       <c r="G3" t="n">
-        <v>1.17410167218324</v>
+        <v>1.688177265004163</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6681531705334356</v>
+        <v>0.8052405360434993</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002948406330976867</v>
+        <v>0.2840898579232944</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1038264812656959</v>
+        <v>1.272513621596034</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03294550031506326</v>
+        <v>0.4214081597224344</v>
       </c>
       <c r="L3" t="n">
-        <v>1.016688417512732</v>
+        <v>0.931017851794907</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03346435901160762</v>
+        <v>0.4280449169844503</v>
       </c>
       <c r="N3" t="n">
-        <v>143.6516023534341</v>
+        <v>37.45661365773405</v>
       </c>
       <c r="O3" t="n">
-        <v>284.9867748966505</v>
+        <v>74.42119724595986</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_9</t>
+          <t>model_1_41_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997445603486167</v>
+        <v>0.9498129807268618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8243308765984609</v>
+        <v>0.7464422015627473</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8129965541301157</v>
+        <v>0.7721683487165468</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995095491424323</v>
+        <v>0.806074657089371</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001063274368312812</v>
+        <v>0.175931127134296</v>
       </c>
       <c r="G4" t="n">
-        <v>1.174700237068028</v>
+        <v>1.695542165676216</v>
       </c>
       <c r="H4" t="n">
-        <v>0.66890048279378</v>
+        <v>0.8149406062027461</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003106773611044217</v>
+        <v>0.2655383598041194</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1018712655545093</v>
+        <v>1.276337449176431</v>
       </c>
       <c r="K4" t="n">
-        <v>0.032607888130218</v>
+        <v>0.4194414466100077</v>
       </c>
       <c r="L4" t="n">
-        <v>1.016348137688531</v>
+        <v>0.9316602290748757</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03312142977233942</v>
+        <v>0.4260472301064947</v>
       </c>
       <c r="N4" t="n">
-        <v>143.6928042107768</v>
+        <v>37.47532536726288</v>
       </c>
       <c r="O4" t="n">
-        <v>285.0279767539932</v>
+        <v>74.4399089554887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_6</t>
+          <t>model_1_41_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997184177281015</v>
+        <v>0.9498237785369507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.824279513151384</v>
+        <v>0.7463433766830454</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8130821292848761</v>
+        <v>0.772058437986018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995406852415246</v>
+        <v>0.8066768903890333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001172093724132066</v>
+        <v>0.1758932752967687</v>
       </c>
       <c r="G5" t="n">
-        <v>1.175043704675138</v>
+        <v>1.69620300810183</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6685943854271346</v>
+        <v>0.8153337505128575</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002909541188023214</v>
+        <v>0.2647137329646791</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1096541678381724</v>
+        <v>1.276571387625977</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03423585436544655</v>
+        <v>0.419396322464526</v>
       </c>
       <c r="L5" t="n">
-        <v>1.018021265401501</v>
+        <v>0.9316749324758478</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03477503484840363</v>
+        <v>0.4260013953008293</v>
       </c>
       <c r="N5" t="n">
-        <v>143.4979272432575</v>
+        <v>37.47575571646449</v>
       </c>
       <c r="O5" t="n">
-        <v>284.8330997864739</v>
+        <v>74.44033930469031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_2</t>
+          <t>model_1_41_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997072708131179</v>
+        <v>0.9493180097967308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8240152775766063</v>
+        <v>0.7461579809634877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8140875279609574</v>
+        <v>0.7747276264744785</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997062045891694</v>
+        <v>0.7959639999653562</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001218493055338659</v>
+        <v>0.1776662529675865</v>
       </c>
       <c r="G6" t="n">
-        <v>1.17681064918037</v>
+        <v>1.69744275013218</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6649981326591567</v>
+        <v>0.8057862180580754</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001861054609918134</v>
+        <v>0.2793826942730291</v>
       </c>
       <c r="J6" t="n">
-        <v>0.103472727552763</v>
+        <v>1.272797732851093</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0349069198775638</v>
+        <v>0.4215047484520032</v>
       </c>
       <c r="L6" t="n">
-        <v>1.018734667960452</v>
+        <v>0.9309862261061865</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03545666897151732</v>
+        <v>0.4281430268899565</v>
       </c>
       <c r="N6" t="n">
-        <v>143.420280768536</v>
+        <v>37.45569694399952</v>
       </c>
       <c r="O6" t="n">
-        <v>284.7554533117524</v>
+        <v>74.42028053222533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_0</t>
+          <t>model_1_41_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999660061177756</v>
+        <v>0.9493273250209773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8238910361851651</v>
+        <v>0.7460449906658313</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8139545373469841</v>
+        <v>0.7746500160775308</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997514815092031</v>
+        <v>0.7965058006891528</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001415004422880823</v>
+        <v>0.177633598350418</v>
       </c>
       <c r="G7" t="n">
-        <v>1.177641451937016</v>
+        <v>1.698198316772882</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6654738323741003</v>
+        <v>0.806063825947848</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001574246791805396</v>
+        <v>0.2786408166340454</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09831804295663929</v>
+        <v>1.272869061769417</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03761654453669055</v>
+        <v>0.4214660109076626</v>
       </c>
       <c r="L7" t="n">
-        <v>1.021756084623618</v>
+        <v>0.9309989106668627</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03820896751039438</v>
+        <v>0.4281036792680159</v>
       </c>
       <c r="N7" t="n">
-        <v>143.121245244362</v>
+        <v>37.45606457283066</v>
       </c>
       <c r="O7" t="n">
-        <v>284.4564177875784</v>
+        <v>74.42064816105648</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_1</t>
+          <t>model_1_41_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996868441798109</v>
+        <v>0.9493584056030363</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8238727961272598</v>
+        <v>0.745891943718257</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8146724643909093</v>
+        <v>0.7744560214778569</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999743128894258</v>
+        <v>0.7976236589182674</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001303519461805712</v>
+        <v>0.1775246450411193</v>
       </c>
       <c r="G8" t="n">
-        <v>1.177763423288217</v>
+        <v>1.699221742416027</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6629058489657815</v>
+        <v>0.8067577333824284</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001627156646675944</v>
+        <v>0.2771101541832412</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1031260143928693</v>
+        <v>1.273043129915893</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03610428592017451</v>
+        <v>0.4213367359264076</v>
       </c>
       <c r="L8" t="n">
-        <v>1.020041972492102</v>
+        <v>0.9310412331615814</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03667289233237223</v>
+        <v>0.4279723683350337</v>
       </c>
       <c r="N8" t="n">
-        <v>143.2853747885594</v>
+        <v>37.4572916688054</v>
       </c>
       <c r="O8" t="n">
-        <v>284.6205473317758</v>
+        <v>74.42187525703123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_3</t>
+          <t>model_1_41_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999701076802409</v>
+        <v>0.9499654110425122</v>
       </c>
       <c r="C9" t="n">
-        <v>0.823851625273774</v>
+        <v>0.7457897842193213</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8138411494119735</v>
+        <v>0.7708101632671682</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9996489691525433</v>
+        <v>0.8124009218086878</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001244275790275157</v>
+        <v>0.1753967810497864</v>
       </c>
       <c r="G9" t="n">
-        <v>1.177904992882959</v>
+        <v>1.699904883455811</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6658794144430229</v>
+        <v>0.8197987568030566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002223613959917092</v>
+        <v>0.2568759233631627</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1009332939137246</v>
+        <v>1.279260535917139</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03527429361837253</v>
+        <v>0.4188039888179033</v>
       </c>
       <c r="L9" t="n">
-        <v>1.019131084645821</v>
+        <v>0.9318677937600166</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03582982848150477</v>
+        <v>0.4253997329913886</v>
       </c>
       <c r="N9" t="n">
-        <v>143.378403225747</v>
+        <v>37.48140910253225</v>
       </c>
       <c r="O9" t="n">
-        <v>284.7135757689634</v>
+        <v>74.44599269075808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_5</t>
+          <t>model_1_41_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997039382968935</v>
+        <v>0.9499721528875964</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8238426407468369</v>
+        <v>0.7456817559782201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8126735341305203</v>
+        <v>0.7706867744195181</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999568540658745</v>
+        <v>0.81302562487115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001232364743090634</v>
+        <v>0.1753731474405024</v>
       </c>
       <c r="G10" t="n">
-        <v>1.177965072455957</v>
+        <v>1.70062726880148</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6700559066025568</v>
+        <v>0.8202401115566045</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002733090328962377</v>
+        <v>0.2560205290960645</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1122828117426018</v>
+        <v>1.279534322204156</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03510505295667041</v>
+        <v>0.4187757722702</v>
       </c>
       <c r="L10" t="n">
-        <v>1.018947948998814</v>
+        <v>0.9318769741448121</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03565792244855945</v>
+        <v>0.4253710720612652</v>
       </c>
       <c r="N10" t="n">
-        <v>143.3976407999676</v>
+        <v>37.48167860806736</v>
       </c>
       <c r="O10" t="n">
-        <v>284.732813343184</v>
+        <v>74.44626219629318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_4</t>
+          <t>model_1_41_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997042540377853</v>
+        <v>0.9494097478921915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8237867814498675</v>
+        <v>0.7455322899400154</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8126373449169934</v>
+        <v>0.774079262216717</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9995752787196762</v>
+        <v>0.7998716585192073</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001231050463198997</v>
+        <v>0.1773446641031888</v>
       </c>
       <c r="G11" t="n">
-        <v>1.178338603832</v>
+        <v>1.701626748887182</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6701853533209718</v>
+        <v>0.8081053794137687</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002690407908149671</v>
+        <v>0.2740320102031168</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1111610755764699</v>
+        <v>1.273497696858185</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03508632872215327</v>
+        <v>0.4211230985153733</v>
       </c>
       <c r="L11" t="n">
-        <v>1.018927741581741</v>
+        <v>0.9311111460659628</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03563890332606602</v>
+        <v>0.4277553663483346</v>
       </c>
       <c r="N11" t="n">
-        <v>143.3997748779143</v>
+        <v>37.45932037006217</v>
       </c>
       <c r="O11" t="n">
-        <v>284.7349474211308</v>
+        <v>74.42390395828799</v>
       </c>
     </row>
   </sheetData>
